--- a/HW/Production/Main/BOM Open-GC-Ultimate.xlsx
+++ b/HW/Production/Main/BOM Open-GC-Ultimate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="216">
   <si>
     <t>NO</t>
   </si>
@@ -497,27 +497,6 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0201FR-0727RL_C273268.html</t>
-  </si>
-  <si>
-    <t>RV1,RV2</t>
-  </si>
-  <si>
-    <t>RD7091008A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugin Position Sensors ROHS </t>
-  </si>
-  <si>
-    <t>Slider_GCC-Gamecube_MB</t>
-  </si>
-  <si>
-    <t>Plugin</t>
-  </si>
-  <si>
-    <t>C127475</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Position-Sensors_ALPSALPINE-RD7091008A_C127475.html</t>
   </si>
   <si>
     <t>S1,S2,S3,S4,S5,S6</t>
@@ -2318,7 +2297,7 @@
         <v>162</v>
       </c>
       <c r="C27" s="12">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>163</v>
@@ -2327,16 +2306,16 @@
         <v>164</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="20"/>
@@ -2362,30 +2341,30 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="F28" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="G28" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="K28" s="20"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -2409,30 +2388,30 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="F29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="H29" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="I29" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="J29" s="12"/>
       <c r="K29" s="20"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
@@ -2456,30 +2435,30 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="F30" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="G30" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="K30" s="20"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
@@ -2503,30 +2482,30 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="G31" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J31" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="J31" s="12"/>
       <c r="K31" s="20"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
@@ -2562,16 +2541,16 @@
         <v>193</v>
       </c>
       <c r="F32" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="I32" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="20"/>
@@ -2597,28 +2576,28 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="12">
         <v>1.0</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="F33" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I33" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="20"/>
@@ -2644,19 +2623,19 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="F34" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>207</v>
@@ -2694,7 +2673,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>211</v>
@@ -2703,16 +2682,16 @@
         <v>212</v>
       </c>
       <c r="F35" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="I35" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="20"/>
@@ -2734,35 +2713,17 @@
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="20"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
@@ -30678,35 +30639,6 @@
       <c r="Z998" s="19"/>
       <c r="AA998" s="19"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="15"/>
-      <c r="B999" s="30"/>
-      <c r="C999" s="30"/>
-      <c r="D999" s="30"/>
-      <c r="E999" s="31"/>
-      <c r="F999" s="30"/>
-      <c r="G999" s="30"/>
-      <c r="H999" s="15"/>
-      <c r="I999" s="32"/>
-      <c r="J999" s="15"/>
-      <c r="K999" s="19"/>
-      <c r="L999" s="19"/>
-      <c r="M999" s="19"/>
-      <c r="N999" s="19"/>
-      <c r="O999" s="19"/>
-      <c r="P999" s="19"/>
-      <c r="Q999" s="19"/>
-      <c r="R999" s="19"/>
-      <c r="S999" s="19"/>
-      <c r="T999" s="19"/>
-      <c r="U999" s="19"/>
-      <c r="V999" s="19"/>
-      <c r="W999" s="19"/>
-      <c r="X999" s="19"/>
-      <c r="Y999" s="19"/>
-      <c r="Z999" s="19"/>
-      <c r="AA999" s="19"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.393055555555556" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.393055555555556"/>
